--- a/resultater.xlsx
+++ b/resultater.xlsx
@@ -93,6 +93,1374 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$24:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>26.041666666699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.5333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.883333333300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.879166666700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.433333333299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.245833333299998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.512500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.758333333300001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.395833333299997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.920833333300003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.5958333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.533333333300007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.433333333299998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.241666666699999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.037499999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.466666666699993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73.512500000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.395833333300004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.987499999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.066666666700002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.979166666699996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.170833333299996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.195833333300001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79.370833333299998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92.637500000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.266666666700004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$D$24:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$24:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>26.041666666699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.5333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.883333333300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.879166666700002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.433333333299998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.245833333299998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.512500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.758333333300001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.395833333299997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.920833333300003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.5958333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.533333333300007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.433333333299998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.241666666699999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.037499999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.466666666699993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73.512500000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74.395833333300004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.987499999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.066666666700002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.979166666699996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.170833333299996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.195833333300001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79.370833333299998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92.637500000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.266666666700004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$E$24:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-253065152"/>
+        <c:axId val="-206187280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-253065152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-206187280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-206187280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-253065152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell1" displayName="Tabell1" ref="D3:H19" totalsRowShown="0">
   <autoFilter ref="D3:H19"/>
@@ -111,10 +1479,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="D23:H58" totalsRowShown="0">
-  <autoFilter ref="D23:H58"/>
-  <sortState ref="D24:H58">
-    <sortCondition descending="1" ref="H23:H58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell3" displayName="Tabell3" ref="C23:G58" totalsRowShown="0">
+  <autoFilter ref="C23:G58"/>
+  <sortState ref="C24:G58">
+    <sortCondition ref="C23:C58"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Kolonne1"/>
@@ -123,7 +1491,7 @@
     <tableColumn id="4" name="Kolonne4"/>
     <tableColumn id="5" name="Kolonne5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -390,15 +1758,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:H58"/>
+  <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="8" width="11.5703125" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:8" x14ac:dyDescent="0.25">
@@ -644,7 +2012,7 @@
         <v>63.5958333333</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>31</v>
       </c>
@@ -661,7 +2029,7 @@
         <v>62.920833333300003</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>32</v>
       </c>
@@ -678,63 +2046,66 @@
         <v>53.512500000000003</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>26.041666666699999</v>
+      </c>
       <c r="D24">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E24">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>0.08</v>
       </c>
-      <c r="H24">
-        <v>93.266666666700004</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>29.5333333333</v>
+      </c>
       <c r="D25">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <v>0.08</v>
       </c>
-      <c r="H25">
-        <v>92.637500000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>30.883333333300001</v>
+      </c>
       <c r="D26">
         <v>64</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>16</v>
@@ -742,16 +2113,16 @@
       <c r="G26">
         <v>0.08</v>
       </c>
-      <c r="H26">
-        <v>88.924999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>34.879166666700002</v>
+      </c>
       <c r="D27">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>16</v>
@@ -759,16 +2130,16 @@
       <c r="G27">
         <v>0.08</v>
       </c>
-      <c r="H27">
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>37.433333333299998</v>
+      </c>
       <c r="D28">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -776,62 +2147,62 @@
       <c r="G28">
         <v>0.08</v>
       </c>
-      <c r="H28">
-        <v>79.370833333299998</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>48.333333333299997</v>
+      </c>
       <c r="D29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>0.08</v>
       </c>
-      <c r="H29">
-        <v>79.195833333300001</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>51.245833333299998</v>
+      </c>
       <c r="D30">
         <v>30</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>0.08</v>
       </c>
-      <c r="H30">
-        <v>79.170833333299996</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>53.512500000000003</v>
+      </c>
       <c r="D31">
         <v>32</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <v>0.08</v>
       </c>
-      <c r="H31">
-        <v>78.8125</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>59.758333333300001</v>
+      </c>
       <c r="D32">
         <v>32</v>
       </c>
@@ -839,72 +2210,72 @@
         <v>32</v>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>60.395833333299997</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="G33">
         <v>0.1</v>
       </c>
-      <c r="H32">
-        <v>77.979166666699996</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>0.08</v>
-      </c>
-      <c r="H33">
-        <v>77.066666666700002</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>62.920833333300003</v>
+      </c>
       <c r="D34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34">
         <v>16</v>
       </c>
       <c r="G34">
-        <v>0.04</v>
-      </c>
-      <c r="H34">
-        <v>76.05</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>63.5958333333</v>
+      </c>
       <c r="D35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>16</v>
       </c>
       <c r="G35">
-        <v>0.08</v>
-      </c>
-      <c r="H35">
-        <v>74.987499999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>64</v>
+      </c>
       <c r="D36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>16</v>
@@ -912,16 +2283,16 @@
       <c r="G36">
         <v>0.08</v>
       </c>
-      <c r="H36">
-        <v>74.395833333300004</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>67.533333333300007</v>
+      </c>
       <c r="D37">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E37">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>16</v>
@@ -929,13 +2300,13 @@
       <c r="G37">
         <v>0.08</v>
       </c>
-      <c r="H37">
-        <v>73.512500000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>69.433333333299998</v>
+      </c>
       <c r="D38">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>32</v>
@@ -944,30 +2315,30 @@
         <v>16</v>
       </c>
       <c r="G38">
-        <v>0.04</v>
-      </c>
-      <c r="H38">
-        <v>73.466666666699993</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>69.875</v>
+      </c>
       <c r="D39">
         <v>32</v>
       </c>
       <c r="E39">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
       <c r="G39">
-        <v>0.03</v>
-      </c>
-      <c r="H39">
-        <v>73.424999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>70.174999999999997</v>
+      </c>
       <c r="D40">
         <v>32</v>
       </c>
@@ -975,16 +2346,16 @@
         <v>32</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>0.08</v>
       </c>
-      <c r="H40">
-        <v>71.037499999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>70.241666666699999</v>
+      </c>
       <c r="D41">
         <v>32</v>
       </c>
@@ -997,11 +2368,11 @@
       <c r="G41">
         <v>0.08</v>
       </c>
-      <c r="H41">
-        <v>70.241666666699999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>71.037499999999994</v>
+      </c>
       <c r="D42">
         <v>32</v>
       </c>
@@ -1009,35 +2380,35 @@
         <v>32</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G42">
         <v>0.08</v>
       </c>
-      <c r="H42">
-        <v>70.174999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>73.424999999999997</v>
+      </c>
       <c r="D43">
         <v>32</v>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>16</v>
       </c>
       <c r="G43">
-        <v>0.08</v>
-      </c>
-      <c r="H43">
-        <v>69.875</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>73.466666666699993</v>
+      </c>
       <c r="D44">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E44">
         <v>32</v>
@@ -1046,18 +2417,18 @@
         <v>16</v>
       </c>
       <c r="G44">
-        <v>0.02</v>
-      </c>
-      <c r="H44">
-        <v>69.433333333299998</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>73.512500000000003</v>
+      </c>
       <c r="D45">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F45">
         <v>16</v>
@@ -1065,16 +2436,16 @@
       <c r="G45">
         <v>0.08</v>
       </c>
-      <c r="H45">
-        <v>67.533333333300007</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>74.395833333300004</v>
+      </c>
       <c r="D46">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F46">
         <v>16</v>
@@ -1082,135 +2453,135 @@
       <c r="G46">
         <v>0.08</v>
       </c>
-      <c r="H46">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>74.987499999999997</v>
+      </c>
       <c r="D47">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F47">
         <v>16</v>
       </c>
       <c r="G47">
-        <v>0.01</v>
-      </c>
-      <c r="H47">
-        <v>63.5958333333</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>76.05</v>
+      </c>
       <c r="D48">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>16</v>
       </c>
       <c r="G48">
-        <v>0.03</v>
-      </c>
-      <c r="H48">
-        <v>62.920833333300003</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>77.066666666700002</v>
+      </c>
       <c r="D49">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E49">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>16</v>
       </c>
       <c r="G49">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>77.979166666699996</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
         <v>0.1</v>
       </c>
-      <c r="H49">
-        <v>60.395833333299997</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>32</v>
-      </c>
-      <c r="E50">
-        <v>32</v>
-      </c>
-      <c r="F50">
-        <v>32</v>
-      </c>
-      <c r="G50">
-        <v>0.01</v>
-      </c>
-      <c r="H50">
-        <v>59.758333333300001</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>78.8125</v>
+      </c>
       <c r="D51">
         <v>32</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>0.08</v>
       </c>
-      <c r="H51">
-        <v>53.512500000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>79.170833333299996</v>
+      </c>
       <c r="D52">
         <v>30</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F52">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G52">
         <v>0.08</v>
       </c>
-      <c r="H52">
-        <v>51.245833333299998</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>79.195833333300001</v>
+      </c>
       <c r="D53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <v>0.08</v>
       </c>
-      <c r="H53">
-        <v>48.333333333299997</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>79.370833333299998</v>
+      </c>
       <c r="D54">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F54">
         <v>16</v>
@@ -1218,16 +2589,16 @@
       <c r="G54">
         <v>0.08</v>
       </c>
-      <c r="H54">
-        <v>37.433333333299998</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>82.7</v>
+      </c>
       <c r="D55">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F55">
         <v>16</v>
@@ -1235,16 +2606,16 @@
       <c r="G55">
         <v>0.08</v>
       </c>
-      <c r="H55">
-        <v>34.879166666700002</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>88.924999999999997</v>
+      </c>
       <c r="D56">
         <v>64</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F56">
         <v>16</v>
@@ -1252,49 +2623,47 @@
       <c r="G56">
         <v>0.08</v>
       </c>
-      <c r="H56">
-        <v>30.883333333300001</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>92.637500000000003</v>
+      </c>
       <c r="D57">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G57">
         <v>0.08</v>
       </c>
-      <c r="H57">
-        <v>29.5333333333</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>93.266666666700004</v>
+      </c>
       <c r="D58">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F58">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>0.08</v>
-      </c>
-      <c r="H58">
-        <v>26.041666666699999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>